--- a/Data/PCR/Exp4_363_30a_125a_20b_146aCT.xlsx
+++ b/Data/PCR/Exp4_363_30a_125a_20b_146aCT.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Exp4_363_30a_125a_20b_146aCT" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3177,11 +3177,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="211865856"/>
-        <c:axId val="211863616"/>
+        <c:axId val="83493440"/>
+        <c:axId val="83494000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="211865856"/>
+        <c:axId val="83493440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211863616"/>
+        <c:crossAx val="83494000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3231,7 +3231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211863616"/>
+        <c:axId val="83494000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3282,7 +3282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211865856"/>
+        <c:crossAx val="83493440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3495,11 +3495,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="383736016"/>
-        <c:axId val="383737136"/>
+        <c:axId val="83497360"/>
+        <c:axId val="83497920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383736016"/>
+        <c:axId val="83497360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +3541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383737136"/>
+        <c:crossAx val="83497920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3549,7 +3549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383737136"/>
+        <c:axId val="83497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +3600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383736016"/>
+        <c:crossAx val="83497360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11930,7 +11930,7 @@
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12662,7 +12662,7 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I32:I35" si="8">-((B34-C34)-(B6-C6))</f>
+        <f t="shared" ref="I34:I35" si="8">-((B34-C34)-(B6-C6))</f>
         <v>0.45999999999999908</v>
       </c>
       <c r="J34">

--- a/Data/PCR/Exp4_363_30a_125a_20b_146aCT.xlsx
+++ b/Data/PCR/Exp4_363_30a_125a_20b_146aCT.xlsx
@@ -3177,11 +3177,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="83493440"/>
-        <c:axId val="83494000"/>
+        <c:axId val="139888304"/>
+        <c:axId val="139888864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83493440"/>
+        <c:axId val="139888304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83494000"/>
+        <c:crossAx val="139888864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3231,7 +3231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83494000"/>
+        <c:axId val="139888864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3282,7 +3282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83493440"/>
+        <c:crossAx val="139888304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3495,11 +3495,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="83497360"/>
-        <c:axId val="83497920"/>
+        <c:axId val="139891664"/>
+        <c:axId val="139892224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83497360"/>
+        <c:axId val="139891664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +3541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83497920"/>
+        <c:crossAx val="139892224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3549,7 +3549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83497920"/>
+        <c:axId val="139892224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +3600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83497360"/>
+        <c:crossAx val="139891664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11930,7 +11930,7 @@
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/PCR/Exp4_363_30a_125a_20b_146aCT.xlsx
+++ b/Data/PCR/Exp4_363_30a_125a_20b_146aCT.xlsx
@@ -3177,11 +3177,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="139888304"/>
-        <c:axId val="139888864"/>
+        <c:axId val="215618640"/>
+        <c:axId val="211216368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139888304"/>
+        <c:axId val="215618640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139888864"/>
+        <c:crossAx val="211216368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3231,7 +3231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139888864"/>
+        <c:axId val="211216368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3282,7 +3282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139888304"/>
+        <c:crossAx val="215618640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3495,11 +3495,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="139891664"/>
-        <c:axId val="139892224"/>
+        <c:axId val="36316640"/>
+        <c:axId val="36315520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139891664"/>
+        <c:axId val="36316640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3541,7 +3541,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139892224"/>
+        <c:crossAx val="36315520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3549,7 +3549,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139892224"/>
+        <c:axId val="36315520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +3600,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="139891664"/>
+        <c:crossAx val="36316640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4771,16 +4771,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>42862</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>347662</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11927,15 +11927,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J37"/>
+  <dimension ref="A2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32:P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>781</v>
       </c>
@@ -11948,8 +11948,16 @@
       <c r="E2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <f>B17-B3</f>
+        <v>-0.65000000000000213</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="L2:N6" si="0">D17-D3</f>
+        <v>-9.379999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>777</v>
       </c>
@@ -11962,8 +11970,20 @@
       <c r="E3">
         <v>25.96</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="1">B18-B4</f>
+        <v>-0.80000000000000071</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>6.9300000000000033</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>777</v>
       </c>
@@ -11979,8 +11999,16 @@
       <c r="E4">
         <v>16.18</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>-0.66000000000000014</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>4.1699999999999982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>777</v>
       </c>
@@ -11993,8 +12021,20 @@
       <c r="D5">
         <v>24.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>-5.4499999999999993</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>2.6900000000000013</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>-1.1499999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>777</v>
       </c>
@@ -12007,8 +12047,24 @@
       <c r="E6">
         <v>21.54</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-5.16</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>-0.25999999999999801</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>1.5899999999999999</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>-0.41999999999999815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>777</v>
       </c>
@@ -12025,7 +12081,7 @@
         <v>24.09</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>785</v>
       </c>
@@ -12034,19 +12090,19 @@
         <v>25.564</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:E8" si="0">AVERAGE(C3:C7)</f>
+        <f t="shared" ref="C8:E8" si="2">AVERAGE(C3:C7)</f>
         <v>23.06</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.6875</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21.942499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>786</v>
       </c>
@@ -12055,19 +12111,19 @@
         <v>2.5674101736964454</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ref="C9:E9" si="1">STDEV(C3:C7)/2</f>
+        <f t="shared" ref="C9:E9" si="3">STDEV(C3:C7)/2</f>
         <v>6.7664700299836307</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1130719146935522</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1236853776709319</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>363</v>
       </c>
@@ -12096,8 +12152,20 @@
         <f>-((D10-E10)-(D3-E3))</f>
         <v>2.509999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f>B10-B3</f>
+        <v>-2.6400000000000006</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="M10:O14" si="4">D10-D3</f>
+        <v>-2.5799999999999983</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>-7.0000000000000284E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>363</v>
       </c>
@@ -12129,8 +12197,24 @@
         <f>-((D11-E11)-(D4-E4))</f>
         <v>3.4699999999999989</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" ref="L11:L14" si="5">B11-B4</f>
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>-5.2100000000000009</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="4"/>
+        <v>4.1500000000000021</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>7.620000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>363</v>
       </c>
@@ -12151,8 +12235,20 @@
         <f>-((D12-E12)-(D5-E5))</f>
         <v>2.9400000000000013</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>-3.84</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>-2.0499999999999989</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="4"/>
+        <v>-2.9400000000000013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>363</v>
       </c>
@@ -12173,8 +12269,20 @@
         <f>-((D13-E13)-(D6-E6))</f>
         <v>-6.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>0.71999999999999886</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="4"/>
+        <v>-1.7300000000000004</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>-6.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>363</v>
       </c>
@@ -12195,8 +12303,20 @@
         <f>-((D14-E14)-(D7-E7))</f>
         <v>-31.999999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>-2.8900000000000006</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>-0.82999999999999829</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>7.9099999999999966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>785</v>
       </c>
@@ -12205,15 +12325,15 @@
         <v>24.637999999999998</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:E15" si="2">AVERAGE(C10:C14)</f>
+        <f t="shared" ref="C15:E15" si="6">AVERAGE(C10:C14)</f>
         <v>20.605</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24.322500000000002</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21.543333333333333</v>
       </c>
       <c r="I15" s="2">
@@ -12225,7 +12345,7 @@
         <v>-5.9359999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>787</v>
       </c>
@@ -12234,15 +12354,15 @@
         <v>2.4683126827855562</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:E16" si="3">STDEV(C10:C14)/2</f>
+        <f t="shared" ref="C16:E16" si="7">STDEV(C10:C14)/2</f>
         <v>5.9770177903923525</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.6107057200701249</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.9066747897440104</v>
       </c>
       <c r="I16" s="1">
@@ -12254,7 +12374,7 @@
         <v>15.152261547373049</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>778</v>
       </c>
@@ -12269,7 +12389,7 @@
         <v>0.65000000000000213</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>778</v>
       </c>
@@ -12291,7 +12411,7 @@
         <v>-0.61000000000000298</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>778</v>
       </c>
@@ -12306,7 +12426,7 @@
         <v>19.89</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>778</v>
       </c>
@@ -12324,7 +12444,7 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>778</v>
       </c>
@@ -12357,7 +12477,7 @@
         <v>-2.009999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>785</v>
       </c>
@@ -12366,15 +12486,15 @@
         <v>23.802499999999998</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:E22" si="4">AVERAGE(C17:C21)</f>
+        <f t="shared" ref="C22:E22" si="8">AVERAGE(C17:C21)</f>
         <v>17.150000000000002</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>23.515000000000004</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>22.186666666666667</v>
       </c>
       <c r="G22">
@@ -12394,7 +12514,7 @@
         <v>-1.3100000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>787</v>
       </c>
@@ -12403,15 +12523,15 @@
         <v>1.9351544942630996</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23:E23" si="5">STDEV(C17:C21)/2</f>
+        <f t="shared" ref="C23:E23" si="9">STDEV(C17:C21)/2</f>
         <v>2.4108971359226374</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.1956111525799056</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.83114880336395458</v>
       </c>
       <c r="I23" s="4">
@@ -12423,7 +12543,7 @@
         <v>0.49497474683058135</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>779</v>
       </c>
@@ -12433,8 +12553,20 @@
       <c r="E24">
         <v>21.41</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <f>B24-B3</f>
+        <v>-1.5</v>
+      </c>
+      <c r="O24">
+        <f t="shared" ref="N24:P28" si="10">D24-D3</f>
+        <v>-27.61</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="10"/>
+        <v>-4.5500000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>779</v>
       </c>
@@ -12451,8 +12583,20 @@
         <f>-((D25-E25)-(D4-E4))</f>
         <v>-4.91</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <f t="shared" ref="M25:M28" si="11">B25-B4</f>
+        <v>-1.3200000000000003</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="10"/>
+        <v>10.64</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="10"/>
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>779</v>
       </c>
@@ -12469,8 +12613,20 @@
         <f>-((B26-C26)-(B5-C5))</f>
         <v>2.6700000000000017</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <f t="shared" si="11"/>
+        <v>-4.4200000000000017</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="10"/>
+        <v>-1.75</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="10"/>
+        <v>-1.6799999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>779</v>
       </c>
@@ -12494,8 +12650,20 @@
         <f>-((D27-E27)-(D6-E6))</f>
         <v>-33.85</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <f t="shared" si="11"/>
+        <v>0.96999999999999886</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="10"/>
+        <v>0.62999999999999901</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="10"/>
+        <v>-1.2100000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>779</v>
       </c>
@@ -12512,8 +12680,20 @@
         <f>-((D28-E28)-(D7-E7))</f>
         <v>1.1999999999999993</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <f t="shared" si="10"/>
+        <v>-2.5299999999999976</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="10"/>
+        <v>-3.91</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="10"/>
+        <v>-2.7100000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>785</v>
       </c>
@@ -12522,15 +12702,15 @@
         <v>22.71</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" ref="C29:E29" si="6">AVERAGE(C24:C28)</f>
+        <f t="shared" ref="C29:E29" si="12">AVERAGE(C24:C28)</f>
         <v>15.343333333333334</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>25.2075</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>21.2575</v>
       </c>
       <c r="G29">
@@ -12550,7 +12730,7 @@
         <v>-12.520000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>787</v>
       </c>
@@ -12559,15 +12739,15 @@
         <v>3.271943866674162</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ref="C30:E30" si="7">STDEV(C24:C28)/2</f>
+        <f t="shared" ref="C30:E30" si="13">STDEV(C24:C28)/2</f>
         <v>2.1005138260276515</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>3.4654470009894407</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.33219911197954799</v>
       </c>
       <c r="G30">
@@ -12587,7 +12767,7 @@
         <v>9.361619785058565</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>780</v>
       </c>
@@ -12605,7 +12785,7 @@
         <v>-10.750000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>780</v>
       </c>
@@ -12629,8 +12809,20 @@
         <f>-((D32-E32)-(D4-E4))</f>
         <v>-4.5100000000000033</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <f>B31-B3</f>
+        <v>-8.6500000000000021</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="N32:P36" si="14">D31-D3</f>
+        <v>-9.5799999999999983</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="14"/>
+        <v>-20.330000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>780</v>
       </c>
@@ -12644,8 +12836,20 @@
         <f>-((B33-C33)-(B5-C5))</f>
         <v>17.920000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <f t="shared" ref="M33:M36" si="15">B32-B4</f>
+        <v>-5.2200000000000006</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="14"/>
+        <v>-1.4799999999999969</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="14"/>
+        <v>-5.99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>780</v>
       </c>
@@ -12662,15 +12866,23 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:I35" si="8">-((B34-C34)-(B6-C6))</f>
+        <f t="shared" ref="I34:I35" si="16">-((B34-C34)-(B6-C6))</f>
         <v>0.45999999999999908</v>
       </c>
       <c r="J34">
         <f>-((D34-E34)-(D6-E6))</f>
         <v>-38.33</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="N34">
+        <f t="shared" si="14"/>
+        <v>-2.629999999999999</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="14"/>
+        <v>-8.6100000000000012</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>780</v>
       </c>
@@ -12687,15 +12899,27 @@
         <v>8.86</v>
       </c>
       <c r="I35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>1.3800000000000043</v>
       </c>
       <c r="J35">
         <f>-((D35-E35)-(D7-E7))</f>
         <v>-8.6399999999999988</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <f t="shared" si="15"/>
+        <v>-7.4499999999999993</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="14"/>
+        <v>-6.99</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="14"/>
+        <v>-11.569999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>785</v>
       </c>
@@ -12704,15 +12928,15 @@
         <v>18.954999999999998</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" ref="C36:E36" si="9">AVERAGE(C31:C35)</f>
+        <f t="shared" ref="C36:E36" si="17">AVERAGE(C31:C35)</f>
         <v>9.9725000000000001</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>18.25</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>8.6624999999999996</v>
       </c>
       <c r="G36">
@@ -12731,8 +12955,24 @@
         <f>AVERAGE(J31:J35)</f>
         <v>-15.557500000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <f t="shared" si="15"/>
+        <v>-10.130000000000003</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="14"/>
+        <v>-8.7499999999999982</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="14"/>
+        <v>-6.5900000000000016</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="14"/>
+        <v>-15.23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>787</v>
       </c>
@@ -12741,11 +12981,11 @@
         <v>1.5743490718389093</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" ref="C37:D37" si="10">STDEV(C31:C35)/2</f>
+        <f t="shared" ref="C37:D37" si="18">STDEV(C31:C35)/2</f>
         <v>1.002026072515082</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>2.4818012611810816</v>
       </c>
       <c r="E37" s="1">
